--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H2">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I2">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J2">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N2">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O2">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P2">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q2">
-        <v>6194.995267555189</v>
+        <v>3267.610427632607</v>
       </c>
       <c r="R2">
-        <v>55754.95740799669</v>
+        <v>29408.49384869346</v>
       </c>
       <c r="S2">
-        <v>0.3700190320450352</v>
+        <v>0.5744574550242448</v>
       </c>
       <c r="T2">
-        <v>0.4445443005245467</v>
+        <v>0.6024822926498745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H3">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I3">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J3">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.189184</v>
       </c>
       <c r="O3">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P3">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q3">
-        <v>2.546959324814222</v>
+        <v>2.278664966229333</v>
       </c>
       <c r="R3">
-        <v>22.922633923328</v>
+        <v>20.507984696064</v>
       </c>
       <c r="S3">
-        <v>0.0001521265769098409</v>
+        <v>0.0004005973497585455</v>
       </c>
       <c r="T3">
-        <v>0.0001827662819120828</v>
+        <v>0.0004201404431278656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H4">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I4">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J4">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N4">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O4">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P4">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q4">
-        <v>231.1431555324829</v>
+        <v>342.116460382255</v>
       </c>
       <c r="R4">
-        <v>2080.288399792346</v>
+        <v>3079.048143440295</v>
       </c>
       <c r="S4">
-        <v>0.01380588087320962</v>
+        <v>0.06014528215821634</v>
       </c>
       <c r="T4">
-        <v>0.01658651346117573</v>
+        <v>0.06307946249078868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H5">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I5">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J5">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N5">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O5">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P5">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q5">
-        <v>60.19651070958701</v>
+        <v>28.2183346488845</v>
       </c>
       <c r="R5">
-        <v>361.179064257522</v>
+        <v>169.310007893307</v>
       </c>
       <c r="S5">
-        <v>0.003595459506144255</v>
+        <v>0.004960882904014055</v>
       </c>
       <c r="T5">
-        <v>0.002879745621712949</v>
+        <v>0.003468599318582914</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H6">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I6">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J6">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N6">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O6">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P6">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q6">
-        <v>78.80632815401133</v>
+        <v>144.06993667863</v>
       </c>
       <c r="R6">
-        <v>709.2569533861019</v>
+        <v>1296.62943010767</v>
       </c>
       <c r="S6">
-        <v>0.00470699976403346</v>
+        <v>0.02532800375161957</v>
       </c>
       <c r="T6">
-        <v>0.005655033218444789</v>
+        <v>0.02656362735840264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>28.57052</v>
       </c>
       <c r="I7">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J7">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N7">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O7">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P7">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q7">
-        <v>1460.760473323849</v>
+        <v>861.2115332372446</v>
       </c>
       <c r="R7">
-        <v>13146.84425991464</v>
+        <v>7750.903799135201</v>
       </c>
       <c r="S7">
-        <v>0.08724932837636311</v>
+        <v>0.1514040295126088</v>
       </c>
       <c r="T7">
-        <v>0.1048221531739647</v>
+        <v>0.1587902568229982</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>28.57052</v>
       </c>
       <c r="I8">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J8">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.189184</v>
       </c>
       <c r="O8">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P8">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q8">
         <v>0.6005650284088889</v>
@@ -948,10 +948,10 @@
         <v>5.40508525568</v>
       </c>
       <c r="S8">
-        <v>3.587097017745647E-05</v>
+        <v>0.0001055814533087674</v>
       </c>
       <c r="T8">
-        <v>4.309571661366175E-05</v>
+        <v>0.000110732231768299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>28.57052</v>
       </c>
       <c r="I9">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J9">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N9">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O9">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P9">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q9">
-        <v>54.50283183419555</v>
+        <v>90.16822779726667</v>
       </c>
       <c r="R9">
-        <v>490.52548650776</v>
+        <v>811.5140501754</v>
       </c>
       <c r="S9">
-        <v>0.003255383451965277</v>
+        <v>0.01585189293877724</v>
       </c>
       <c r="T9">
-        <v>0.003911047903657436</v>
+        <v>0.01662522562300422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>28.57052</v>
       </c>
       <c r="I10">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J10">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N10">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O10">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P10">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q10">
-        <v>14.19414861172</v>
+        <v>7.437225393473334</v>
       </c>
       <c r="R10">
-        <v>85.16489167032002</v>
+        <v>44.62335236084</v>
       </c>
       <c r="S10">
-        <v>0.0008477980859030941</v>
+        <v>0.001307490493923942</v>
       </c>
       <c r="T10">
-        <v>0.0006790349944990035</v>
+        <v>0.0009141841732665442</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>28.57052</v>
       </c>
       <c r="I11">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J11">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N11">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O11">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P11">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q11">
-        <v>18.58228525501333</v>
+        <v>37.97107819560001</v>
       </c>
       <c r="R11">
-        <v>167.24056729512</v>
+        <v>341.7397037604001</v>
       </c>
       <c r="S11">
-        <v>0.001109895795926612</v>
+        <v>0.006675449668146147</v>
       </c>
       <c r="T11">
-        <v>0.001333439114005572</v>
+        <v>0.007001110674704002</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H12">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I12">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J12">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N12">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O12">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P12">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q12">
-        <v>131.7540040588471</v>
+        <v>46.16070089296889</v>
       </c>
       <c r="R12">
-        <v>1185.786036529624</v>
+        <v>415.44630803672</v>
       </c>
       <c r="S12">
-        <v>0.007869495769470001</v>
+        <v>0.008115214265711043</v>
       </c>
       <c r="T12">
-        <v>0.009454485281433139</v>
+        <v>0.008511114014429855</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H13">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I13">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J13">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.189184</v>
       </c>
       <c r="O13">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P13">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q13">
-        <v>0.0541682559431111</v>
+        <v>0.03219012004977777</v>
       </c>
       <c r="R13">
-        <v>0.487514303488</v>
+        <v>0.289711080448</v>
       </c>
       <c r="S13">
-        <v>3.235399667956104E-06</v>
+        <v>5.659136806622833E-06</v>
       </c>
       <c r="T13">
-        <v>3.887039200010241E-06</v>
+        <v>5.935217112866115E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H14">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I14">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J14">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N14">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O14">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P14">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q14">
-        <v>4.915909526468443</v>
+        <v>4.832992165993333</v>
       </c>
       <c r="R14">
-        <v>44.24318573821599</v>
+        <v>43.49692949393999</v>
       </c>
       <c r="S14">
-        <v>0.0002936208997820054</v>
+        <v>0.0008496570938660259</v>
       </c>
       <c r="T14">
-        <v>0.0003527588751086002</v>
+        <v>0.0008911075126651952</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H15">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I15">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J15">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N15">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O15">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P15">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q15">
-        <v>1.280248163852</v>
+        <v>0.3986332319206666</v>
       </c>
       <c r="R15">
-        <v>7.681488983112</v>
+        <v>2.391799391524</v>
       </c>
       <c r="S15">
-        <v>7.646756226706519E-05</v>
+        <v>7.008113022308639E-05</v>
       </c>
       <c r="T15">
-        <v>6.124589284494318E-05</v>
+        <v>4.900001980305344E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H16">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I16">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J16">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N16">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O16">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P16">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q16">
-        <v>1.676038290754666</v>
+        <v>2.03523932916</v>
       </c>
       <c r="R16">
-        <v>15.084344616792</v>
+        <v>18.31715396244</v>
       </c>
       <c r="S16">
-        <v>0.0001001075931830697</v>
+        <v>0.0003578022629342518</v>
       </c>
       <c r="T16">
-        <v>0.0001202701918947434</v>
+        <v>0.000375257603156779</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H17">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I17">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J17">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N17">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O17">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P17">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q17">
-        <v>7821.612896187237</v>
+        <v>650.3829045409834</v>
       </c>
       <c r="R17">
-        <v>46929.67737712342</v>
+        <v>3902.2974272459</v>
       </c>
       <c r="S17">
-        <v>0.4671747931811286</v>
+        <v>0.1143396118993831</v>
       </c>
       <c r="T17">
-        <v>0.3741787559945977</v>
+        <v>0.07994510404596149</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H18">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I18">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J18">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.189184</v>
       </c>
       <c r="O18">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P18">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q18">
-        <v>3.215713497856</v>
+        <v>0.4535438884266667</v>
       </c>
       <c r="R18">
-        <v>19.294280987136</v>
+        <v>2.72126333056</v>
       </c>
       <c r="S18">
-        <v>0.0001920703962507476</v>
+        <v>7.973461759214246E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001538367715499366</v>
+        <v>5.574964086005586E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H19">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I19">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J19">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N19">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O19">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P19">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q19">
-        <v>291.8343288568419</v>
+        <v>68.09462208623751</v>
       </c>
       <c r="R19">
-        <v>1751.005973141052</v>
+        <v>408.567732517425</v>
       </c>
       <c r="S19">
-        <v>0.01743088593572668</v>
+        <v>0.01197127508643631</v>
       </c>
       <c r="T19">
-        <v>0.01396108546632392</v>
+        <v>0.008370194864664752</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H20">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I20">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J20">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N20">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O20">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P20">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q20">
-        <v>76.002286383891</v>
+        <v>5.61655768235125</v>
       </c>
       <c r="R20">
-        <v>304.009145535564</v>
+        <v>22.466230729405</v>
       </c>
       <c r="S20">
-        <v>0.004539517986117069</v>
+        <v>0.0009874106793501573</v>
       </c>
       <c r="T20">
-        <v>0.002423919580212774</v>
+        <v>0.0004602583956421943</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H21">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I21">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J21">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N21">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O21">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P21">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q21">
-        <v>99.49847674925398</v>
+        <v>28.675579892175</v>
       </c>
       <c r="R21">
-        <v>596.9908604955239</v>
+        <v>172.05347935305</v>
       </c>
       <c r="S21">
-        <v>0.00594291496065076</v>
+        <v>0.005041268232865178</v>
       </c>
       <c r="T21">
-        <v>0.004759915473641207</v>
+        <v>0.003524803930195791</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H22">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I22">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J22">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>153.3847273333333</v>
+        <v>90.43008666666667</v>
       </c>
       <c r="N22">
-        <v>460.154182</v>
+        <v>271.29026</v>
       </c>
       <c r="O22">
-        <v>0.9432535557163702</v>
+        <v>0.863466363695901</v>
       </c>
       <c r="P22">
-        <v>0.9461442014370421</v>
+        <v>0.8656179140344247</v>
       </c>
       <c r="Q22">
-        <v>183.1766940515291</v>
+        <v>86.17604438633111</v>
       </c>
       <c r="R22">
-        <v>1648.590246463762</v>
+        <v>775.58439947698</v>
       </c>
       <c r="S22">
-        <v>0.01094090634437317</v>
+        <v>0.01515005299395322</v>
       </c>
       <c r="T22">
-        <v>0.01314450646249997</v>
+        <v>0.01588914650116048</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H23">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I23">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J23">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.189184</v>
       </c>
       <c r="O23">
-        <v>0.0003878014971178633</v>
+        <v>0.000602137432244878</v>
       </c>
       <c r="P23">
-        <v>0.0003889899333885992</v>
+        <v>0.0006036378137891445</v>
       </c>
       <c r="Q23">
-        <v>0.0753097571271111</v>
+        <v>0.06009478107022222</v>
       </c>
       <c r="R23">
-        <v>0.6777878141439999</v>
+        <v>0.540853029632</v>
       </c>
       <c r="S23">
-        <v>4.498154111862216E-06</v>
+        <v>1.056487477879982E-05</v>
       </c>
       <c r="T23">
-        <v>5.404124112907864E-06</v>
+        <v>1.108028092005789E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H24">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I24">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J24">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.722979333333332</v>
+        <v>9.467965</v>
       </c>
       <c r="N24">
-        <v>17.168938</v>
+        <v>28.403895</v>
       </c>
       <c r="O24">
-        <v>0.0351939902968738</v>
+        <v>0.0904043069236993</v>
       </c>
       <c r="P24">
-        <v>0.03530184396657746</v>
+        <v>0.09062957269587499</v>
       </c>
       <c r="Q24">
-        <v>6.834555516906443</v>
+        <v>9.022569834481667</v>
       </c>
       <c r="R24">
-        <v>61.51099965215798</v>
+        <v>81.20312851033499</v>
       </c>
       <c r="S24">
-        <v>0.0004082191361902033</v>
+        <v>0.001586199646403386</v>
       </c>
       <c r="T24">
-        <v>0.0004904382603117606</v>
+        <v>0.001663582204752134</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H25">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I25">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J25">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.490433</v>
+        <v>0.7809334999999999</v>
       </c>
       <c r="N25">
-        <v>2.980866</v>
+        <v>1.561867</v>
       </c>
       <c r="O25">
-        <v>0.009165555471189982</v>
+        <v>0.007456697592460336</v>
       </c>
       <c r="P25">
-        <v>0.006129095836753322</v>
+        <v>0.004983518592002547</v>
       </c>
       <c r="Q25">
-        <v>1.779920298401</v>
+        <v>0.7441965659818333</v>
       </c>
       <c r="R25">
-        <v>10.679521790406</v>
+        <v>4.465179395891</v>
       </c>
       <c r="S25">
-        <v>0.0001063123307584966</v>
+        <v>0.0001308323849490951</v>
       </c>
       <c r="T25">
-        <v>8.5149747483652E-05</v>
+        <v>9.147668470784027E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H26">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I26">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J26">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.951202</v>
+        <v>3.98709</v>
       </c>
       <c r="N26">
-        <v>5.853605999999999</v>
+        <v>11.96127</v>
       </c>
       <c r="O26">
-        <v>0.01199909701844822</v>
+        <v>0.03807049435569441</v>
       </c>
       <c r="P26">
-        <v>0.0120358688262385</v>
+        <v>0.03816535686390858</v>
       </c>
       <c r="Q26">
-        <v>2.330184614860666</v>
+        <v>3.79952798319</v>
       </c>
       <c r="R26">
-        <v>20.97166153374599</v>
+        <v>34.19575184871</v>
       </c>
       <c r="S26">
-        <v>0.0001391789046543119</v>
+        <v>0.0006679704401292652</v>
       </c>
       <c r="T26">
-        <v>0.0001672108282521892</v>
+        <v>0.0007005572974493658</v>
       </c>
     </row>
   </sheetData>
